--- a/percentiles_84.xlsx
+++ b/percentiles_84.xlsx
@@ -366,507 +366,507 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>41722.16730387945</v>
+        <v>120242.85221105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>3352.676807104686</v>
+        <v>11546.8618458165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>4823.077174893943</v>
+        <v>16837.32379170476</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>5639.683416244498</v>
+        <v>19561.19211383436</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>6247.442662197189</v>
+        <v>21684.1168094859</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6815.444339306437</v>
+        <v>24174.71901404438</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7488.129360155149</v>
+        <v>26027.2177327652</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>7947.282216614393</v>
+        <v>27785.40058690545</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>8552.08693699753</v>
+        <v>29930.81361481074</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>8937.72184700797</v>
+        <v>31338.67048402581</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>9424.442962484847</v>
+        <v>32793.75600263425</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>9941.288495714574</v>
+        <v>33718.97641812549</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>10223.54944236069</v>
+        <v>34597.32865645406</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>10682.22503017351</v>
+        <v>35895.41371688111</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>11124.06973510443</v>
+        <v>37414.99178273391</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>11493.47187476058</v>
+        <v>38612.0202987507</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>11970.48169884616</v>
+        <v>39932.68508319654</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>12212.921763462</v>
+        <v>41098.94198093286</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>12569.27897702069</v>
+        <v>42413.38593883903</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>12826.77086292632</v>
+        <v>43767.23652637847</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>13133.06231900932</v>
+        <v>45570.34304079801</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>13481.58733441237</v>
+        <v>46916.30931581758</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>13913.09456107023</v>
+        <v>48335.00255998309</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>14230.07034597763</v>
+        <v>49889.95095736229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>14576.15244466851</v>
+        <v>51372.29014242115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>15124.30064233149</v>
+        <v>52685.55440301955</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>15693.16613147235</v>
+        <v>53786.17100602535</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>16088.69824716046</v>
+        <v>55347.98965957158</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>16507.15981219868</v>
+        <v>56807.27863091436</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>16956.98394432351</v>
+        <v>59167.96621733817</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>17381.05102476076</v>
+        <v>60438.06233237006</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>17881.38182520514</v>
+        <v>61713.6355655268</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>18348.68909391958</v>
+        <v>63005.30343479593</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>18735.17291954766</v>
+        <v>64430.19167189256</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>19161.52612265851</v>
+        <v>66007.0547764907</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>19707.16156922477</v>
+        <v>67384.75884106405</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>20408.92330354652</v>
+        <v>69040.14733276324</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>20850.02607360119</v>
+        <v>70364.36345954111</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>21334.71923593022</v>
+        <v>71957.7717406319</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>21879.04893988652</v>
+        <v>73392.66221700725</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>22440.49055157661</v>
+        <v>74583.94364076</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>22840.07941042481</v>
+        <v>75957.57994029704</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>23342.28260494982</v>
+        <v>77773.17707981529</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>23890.87489764749</v>
+        <v>79536.31201681787</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>24536.4687647902</v>
+        <v>81775.66183964536</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>25070.23120515073</v>
+        <v>83667.67206047619</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>25817.1880517806</v>
+        <v>85074.14283516978</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>26443.61540623586</v>
+        <v>86699.51383005528</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>27012.05182654184</v>
+        <v>88602.4622301457</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>27675.87892741779</v>
+        <v>90176.50384681417</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>28224.82483497032</v>
+        <v>91105.13505307803</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>28746.80739319048</v>
+        <v>92700.87814742916</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>29497.81809712995</v>
+        <v>94669.19433025022</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>30204.92214454267</v>
+        <v>95927.54392743054</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>30844.46006385618</v>
+        <v>97267.86546248331</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>31575.85648247586</v>
+        <v>98731.68085596523</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>32434.62203208498</v>
+        <v>100060.3815463647</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>33254.3229113893</v>
+        <v>101427.34001372</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>34191.68539436851</v>
+        <v>103083.1113467568</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>34957.33119020701</v>
+        <v>104610.7004140087</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>35587.69631043226</v>
+        <v>106539.2174603143</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>36542.52351606074</v>
+        <v>108391.138206716</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>37452.37158078481</v>
+        <v>110507.0180092133</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>38142.13542664262</v>
+        <v>111980.0300218701</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>39066.19847802247</v>
+        <v>113735.4250335997</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>40182.26558354643</v>
+        <v>115671.4460309262</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>40973.09655869109</v>
+        <v>117708.0103631586</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>41776.66538777724</v>
+        <v>120071.4122182523</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>42632.3817770452</v>
+        <v>122699.1678543696</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>43614.87018684975</v>
+        <v>125400.5796679346</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>44526.8875157306</v>
+        <v>127957.4741876603</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>45582.61016002256</v>
+        <v>131083.5366877832</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>47122.56523308012</v>
+        <v>133841.2568378106</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>48102.83390719981</v>
+        <v>136930.1818377778</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>49448.33264374478</v>
+        <v>139858.722992438</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>50345.70405063764</v>
+        <v>143446.7048114222</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>51610.29822555349</v>
+        <v>146437.6032867262</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>52591.96068794425</v>
+        <v>149846.1339130306</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>53592.1585777967</v>
+        <v>153450.1536674956</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>55038.95380007204</v>
+        <v>156890.3204761132</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>56620.51988832159</v>
+        <v>160183.5766035956</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>59153.14914229898</v>
+        <v>164843.4648185354</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>60785.40151134741</v>
+        <v>169670.6668936899</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>63822.92883427586</v>
+        <v>174529.3625649305</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>66250.44648207814</v>
+        <v>179217.1372697904</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>67997.85266025296</v>
+        <v>184376.7834901265</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>70577.90016685985</v>
+        <v>189053.1724622966</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>73647.35713687685</v>
+        <v>197319.7471909925</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>76981.17384141278</v>
+        <v>203777.1615557434</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>79566.18314138232</v>
+        <v>211739.7595184315</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>83395.30939390254</v>
+        <v>219867.8955461631</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>88138.55056622818</v>
+        <v>232892.5398400778</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>92714.97964104751</v>
+        <v>244159.6180273647</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>97548.74377286188</v>
+        <v>257619.1472127643</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>104054.7184215326</v>
+        <v>274812.0428488455</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>113090.6174483976</v>
+        <v>302232.9930288391</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>122900.1620296962</v>
+        <v>324458.54151238</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>134797.4996347935</v>
+        <v>352055.9658878284</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>159418.0529921142</v>
+        <v>397512.6846242272</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>187931.7909418771</v>
+        <v>507751.0807441245</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>338025.678015723</v>
+        <v>922834.352811564</v>
       </c>
     </row>
   </sheetData>

--- a/percentiles_84.xlsx
+++ b/percentiles_84.xlsx
@@ -366,507 +366,507 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>120242.85221105</v>
+        <v>121491.546551841</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>11546.8618458165</v>
+        <v>8628.508111115925</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>16837.32379170476</v>
+        <v>13542.48865621961</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>19561.19211383436</v>
+        <v>16091.69931583292</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>21684.1168094859</v>
+        <v>18701.8688952262</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>24174.71901404438</v>
+        <v>20690.22374462063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>26027.2177327652</v>
+        <v>23203.39026401766</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>27785.40058690545</v>
+        <v>25286.61113699107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>29930.81361481074</v>
+        <v>26959.24833934572</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>31338.67048402581</v>
+        <v>28796.25324999519</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>32793.75600263425</v>
+        <v>30618.25563050573</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>33718.97641812549</v>
+        <v>31816.66903436299</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>34597.32865645406</v>
+        <v>33068.47912664029</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>35895.41371688111</v>
+        <v>34001.55920733087</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>37414.99178273391</v>
+        <v>35097.0564330551</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>38612.0202987507</v>
+        <v>36336.0358854615</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>39932.68508319654</v>
+        <v>37510.23384542068</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>41098.94198093286</v>
+        <v>38652.24019790674</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>42413.38593883903</v>
+        <v>39971.21985355713</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>43767.23652637847</v>
+        <v>41236.15148020222</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>45570.34304079801</v>
+        <v>42401.20157965562</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>46916.30931581758</v>
+        <v>43496.57668693258</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>48335.00255998309</v>
+        <v>45109.46544304605</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>49889.95095736229</v>
+        <v>46427.68362180728</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>51372.29014242115</v>
+        <v>47937.32667411595</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>52685.55440301955</v>
+        <v>49467.18025362476</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>53786.17100602535</v>
+        <v>51185.57766499389</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>55347.98965957158</v>
+        <v>52535.1872345695</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>56807.27863091436</v>
+        <v>53683.25724503943</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>59167.96621733817</v>
+        <v>55374.33171508704</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>60438.06233237006</v>
+        <v>56848.24735333689</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>61713.6355655268</v>
+        <v>58565.49265790924</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>63005.30343479593</v>
+        <v>60008.22688429656</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>64430.19167189256</v>
+        <v>61225.74817580318</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>66007.0547764907</v>
+        <v>62596.56263163817</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>67384.75884106405</v>
+        <v>63836.7911882335</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>69040.14733276324</v>
+        <v>65651.33200501354</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>70364.36345954111</v>
+        <v>67149.93621978165</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>71957.7717406319</v>
+        <v>68878.43497317535</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>73392.66221700725</v>
+        <v>70415.4013776608</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>74583.94364076</v>
+        <v>72063.09239947674</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>75957.57994029704</v>
+        <v>73470.53106345494</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>77773.17707981529</v>
+        <v>74774.86831896428</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>79536.31201681787</v>
+        <v>76199.55072280469</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>81775.66183964536</v>
+        <v>77999.20706235137</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>83667.67206047619</v>
+        <v>79651.77060891604</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>85074.14283516978</v>
+        <v>81950.58913352396</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>86699.51383005528</v>
+        <v>83824.9799765209</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>88602.4622301457</v>
+        <v>85386.50282380932</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>90176.50384681417</v>
+        <v>87212.95644953018</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>91105.13505307803</v>
+        <v>89244.31660653082</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>92700.87814742916</v>
+        <v>90546.98538404144</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>94669.19433025022</v>
+        <v>92016.05858153058</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>95927.54392743054</v>
+        <v>93662.9482049264</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>97267.86546248331</v>
+        <v>95468.57089214541</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>98731.68085596523</v>
+        <v>96968.17021955541</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>100060.3815463647</v>
+        <v>98616.53979856838</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>101427.34001372</v>
+        <v>99948.52452966597</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>103083.1113467568</v>
+        <v>101307.8458382133</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>104610.7004140087</v>
+        <v>102852.3615547829</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>106539.2174603143</v>
+        <v>104409.1348142853</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>108391.138206716</v>
+        <v>106306.7517490541</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>110507.0180092133</v>
+        <v>108577.7915774678</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>111980.0300218701</v>
+        <v>110399.7752748703</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>113735.4250335997</v>
+        <v>111983.701525395</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>115671.4460309262</v>
+        <v>113994.8965417016</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>117708.0103631586</v>
+        <v>116207.2670683024</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>120071.4122182523</v>
+        <v>118666.2023667191</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>122699.1678543696</v>
+        <v>120886.0464672328</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>125400.5796679346</v>
+        <v>123586.7755932051</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>127957.4741876603</v>
+        <v>126442.4458062559</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>131083.5366877832</v>
+        <v>129799.388905388</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>133841.2568378106</v>
+        <v>132596.3533861162</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>136930.1818377778</v>
+        <v>135919.4414340419</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>139858.722992438</v>
+        <v>138796.8299598172</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>143446.7048114222</v>
+        <v>142814.9238239489</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>146437.6032867262</v>
+        <v>146136.4434949672</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>149846.1339130306</v>
+        <v>149854.0169187149</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>153450.1536674956</v>
+        <v>153869.7406789803</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>156890.3204761132</v>
+        <v>157600.5511178624</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>160183.5766035956</v>
+        <v>161930.7105065997</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>164843.4648185354</v>
+        <v>166756.1972653054</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>169670.6668936899</v>
+        <v>172580.7982664582</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>174529.3625649305</v>
+        <v>177684.2620943809</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>179217.1372697904</v>
+        <v>181786.6100920631</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>184376.7834901265</v>
+        <v>187045.7944765161</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>189053.1724622966</v>
+        <v>192964.0913815239</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>197319.7471909925</v>
+        <v>200579.034123391</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>203777.1615557434</v>
+        <v>208045.1884279958</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>211739.7595184315</v>
+        <v>214513.02863873</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>219867.8955461631</v>
+        <v>226914.2764082763</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>232892.5398400778</v>
+        <v>237705.8758416371</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>244159.6180273647</v>
+        <v>250457.4801313554</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>257619.1472127643</v>
+        <v>266692.8376906488</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>274812.0428488455</v>
+        <v>283957.8358307195</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>302232.9930288391</v>
+        <v>308532.2430328467</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>324458.54151238</v>
+        <v>334508.3676640167</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>352055.9658878284</v>
+        <v>368602.6491621538</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>397512.6846242272</v>
+        <v>449636.8243688083</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>507751.0807441245</v>
+        <v>585153.3729016116</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>922834.352811564</v>
+        <v>1007878.965009854</v>
       </c>
     </row>
   </sheetData>
